--- a/Results/case2/0.9.xlsx
+++ b/Results/case2/0.9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\桌面\1118MDP\Results_new\case2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\文件\GitHub\MDP\Results\case2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F40CAA47C4533E4FE72564B74F5DCE3A6745B69F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{AE67E908-2E46-42F1-9BD2-AAED91045159}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_F40CAA47C4533E4FE72564B74F5DCE3A6745B69F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CE3D2272-B67E-4A3D-B453-D29FA1B3696F}"/>
   <bookViews>
-    <workbookView xWindow="27570" yWindow="2325" windowWidth="2040" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -329,31 +329,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.98199999999999998</c:v>
+                  <c:v>0.99270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98870000000000002</c:v>
+                  <c:v>0.99199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99080000000000001</c:v>
+                  <c:v>0.99550000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99180000000000001</c:v>
+                  <c:v>0.99339999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.99380000000000002</c:v>
+                  <c:v>0.997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99629999999999996</c:v>
+                  <c:v>0.99770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99650000000000005</c:v>
+                  <c:v>0.99839999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99460000000000004</c:v>
+                  <c:v>0.99829999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99650000000000005</c:v>
+                  <c:v>0.99829999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1753,58 +1753,58 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.98199999999999998</v>
+        <v>0.9829</v>
       </c>
       <c r="C2">
-        <v>0.42109999999999997</v>
+        <v>0.42230000000000001</v>
       </c>
       <c r="D2">
-        <v>0.98560000000000003</v>
+        <v>0.99070000000000003</v>
       </c>
       <c r="E2">
-        <v>0.43090000000000001</v>
+        <v>0.42880000000000001</v>
       </c>
       <c r="F2">
-        <v>0.98819999999999997</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="G2">
-        <v>0.42780000000000001</v>
+        <v>0.42520000000000002</v>
       </c>
       <c r="H2">
-        <v>0.98850000000000005</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="I2">
-        <v>0.42699999999999999</v>
+        <v>0.4244</v>
       </c>
       <c r="J2">
-        <v>0.98750000000000004</v>
+        <v>0.99360000000000004</v>
       </c>
       <c r="K2">
-        <v>0.42499999999999999</v>
+        <v>0.4259</v>
       </c>
       <c r="L2">
-        <v>0.98750000000000004</v>
+        <v>0.99390000000000001</v>
       </c>
       <c r="M2">
-        <v>0.42499999999999999</v>
+        <v>0.42609999999999998</v>
       </c>
       <c r="N2">
-        <v>0.98809999999999998</v>
+        <v>0.99390000000000001</v>
       </c>
       <c r="O2">
         <v>0.42570000000000002</v>
       </c>
       <c r="P2">
-        <v>0.98829999999999996</v>
+        <v>0.99390000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.4259</v>
+        <v>0.42570000000000002</v>
       </c>
       <c r="R2">
-        <v>0.98360000000000003</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="S2">
-        <v>0.40229999999999999</v>
+        <v>0.40920000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1812,58 +1812,58 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9244</v>
+        <v>0.9677</v>
       </c>
       <c r="C3">
-        <v>0.59550000000000003</v>
+        <v>0.63580000000000003</v>
       </c>
       <c r="D3">
-        <v>0.92520000000000002</v>
+        <v>0.95989999999999998</v>
       </c>
       <c r="E3">
-        <v>0.58540000000000003</v>
+        <v>0.61240000000000006</v>
       </c>
       <c r="F3">
-        <v>0.92230000000000001</v>
+        <v>0.96289999999999998</v>
       </c>
       <c r="G3">
-        <v>0.58850000000000002</v>
+        <v>0.61929999999999996</v>
       </c>
       <c r="H3">
-        <v>0.92759999999999998</v>
+        <v>0.9667</v>
       </c>
       <c r="I3">
-        <v>0.6089</v>
+        <v>0.59950000000000003</v>
       </c>
       <c r="J3">
-        <v>0.92749999999999999</v>
+        <v>0.97809999999999997</v>
       </c>
       <c r="K3">
-        <v>0.56569999999999998</v>
+        <v>0.62770000000000004</v>
       </c>
       <c r="L3">
-        <v>0.99419999999999997</v>
+        <v>0.99739999999999995</v>
       </c>
       <c r="M3">
-        <v>0.4168</v>
+        <v>0.47489999999999999</v>
       </c>
       <c r="N3">
-        <v>0.99609999999999999</v>
+        <v>0.99750000000000005</v>
       </c>
       <c r="O3">
-        <v>0.41010000000000002</v>
+        <v>0.46960000000000002</v>
       </c>
       <c r="P3">
-        <v>0.99429999999999996</v>
+        <v>0.998</v>
       </c>
       <c r="Q3">
-        <v>0.43409999999999999</v>
+        <v>0.46850000000000003</v>
       </c>
       <c r="R3">
-        <v>0.99639999999999995</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="S3">
-        <v>0.40679999999999999</v>
+        <v>0.46189999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1871,58 +1871,58 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.96360000000000001</v>
+        <v>0.9647</v>
       </c>
       <c r="C4">
-        <v>0.63429999999999997</v>
+        <v>0.63219999999999998</v>
       </c>
       <c r="D4">
-        <v>0.98089999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="E4">
-        <v>0.4758</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="F4">
-        <v>0.97789999999999999</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="G4">
-        <v>0.48110000000000003</v>
+        <v>0.43240000000000001</v>
       </c>
       <c r="H4">
-        <v>0.99160000000000004</v>
+        <v>0.99229999999999996</v>
       </c>
       <c r="I4">
-        <v>0.40989999999999999</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="J4">
-        <v>0.98970000000000002</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="K4">
-        <v>0.41539999999999999</v>
+        <v>0.432</v>
       </c>
       <c r="L4">
-        <v>0.99360000000000004</v>
+        <v>0.99619999999999997</v>
       </c>
       <c r="M4">
-        <v>0.40550000000000003</v>
+        <v>0.45150000000000001</v>
       </c>
       <c r="N4">
-        <v>0.99650000000000005</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O4">
-        <v>0.40689999999999998</v>
+        <v>0.4617</v>
       </c>
       <c r="P4">
-        <v>0.99460000000000004</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="Q4">
-        <v>0.43319999999999997</v>
+        <v>0.46160000000000001</v>
       </c>
       <c r="R4">
-        <v>0.99650000000000005</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S4">
-        <v>0.40679999999999999</v>
+        <v>0.46689999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1930,58 +1930,58 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.92369999999999997</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="C5">
-        <v>0.61029999999999995</v>
+        <v>0.61080000000000001</v>
       </c>
       <c r="D5">
-        <v>0.98870000000000002</v>
+        <v>0.99039999999999995</v>
       </c>
       <c r="E5">
-        <v>0.42849999999999999</v>
+        <v>0.4627</v>
       </c>
       <c r="F5">
-        <v>0.98419999999999996</v>
+        <v>0.97450000000000003</v>
       </c>
       <c r="G5">
-        <v>0.4214</v>
+        <v>0.443</v>
       </c>
       <c r="H5">
-        <v>0.99129999999999996</v>
+        <v>0.99209999999999998</v>
       </c>
       <c r="I5">
-        <v>0.40939999999999999</v>
+        <v>0.4047</v>
       </c>
       <c r="J5">
-        <v>0.99109999999999998</v>
+        <v>0.99560000000000004</v>
       </c>
       <c r="K5">
-        <v>0.4083</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="L5">
-        <v>0.99350000000000005</v>
+        <v>0.99670000000000003</v>
       </c>
       <c r="M5">
-        <v>0.40439999999999998</v>
+        <v>0.45779999999999998</v>
       </c>
       <c r="N5">
-        <v>0.99650000000000005</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O5">
-        <v>0.40679999999999999</v>
+        <v>0.4617</v>
       </c>
       <c r="P5">
-        <v>0.99450000000000005</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="Q5">
-        <v>0.43340000000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="R5">
-        <v>0.99650000000000005</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S5">
-        <v>0.40679999999999999</v>
+        <v>0.46689999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1989,58 +1989,58 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.92400000000000004</v>
+        <v>0.96309999999999996</v>
       </c>
       <c r="C6">
-        <v>0.74580000000000002</v>
+        <v>0.64139999999999997</v>
       </c>
       <c r="D6">
-        <v>0.98440000000000005</v>
+        <v>0.99070000000000003</v>
       </c>
       <c r="E6">
-        <v>0.42049999999999998</v>
+        <v>0.46129999999999999</v>
       </c>
       <c r="F6">
-        <v>0.98429999999999995</v>
+        <v>0.99180000000000001</v>
       </c>
       <c r="G6">
-        <v>0.42130000000000001</v>
+        <v>0.45850000000000002</v>
       </c>
       <c r="H6">
-        <v>0.99129999999999996</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="I6">
-        <v>0.40939999999999999</v>
+        <v>0.40329999999999999</v>
       </c>
       <c r="J6">
-        <v>0.99380000000000002</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="K6">
-        <v>0.40289999999999998</v>
+        <v>0.4607</v>
       </c>
       <c r="L6">
-        <v>0.99380000000000002</v>
+        <v>0.99680000000000002</v>
       </c>
       <c r="M6">
-        <v>0.40250000000000002</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="N6">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O6">
-        <v>0.40710000000000002</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="P6">
-        <v>0.99390000000000001</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="Q6">
-        <v>0.4385</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="R6">
-        <v>0.99619999999999997</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S6">
-        <v>0.40710000000000002</v>
+        <v>0.46750000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2048,58 +2048,58 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.96930000000000005</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="C7">
-        <v>0.53710000000000002</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="D7">
-        <v>0.98440000000000005</v>
+        <v>0.98829999999999996</v>
       </c>
       <c r="E7">
-        <v>0.42049999999999998</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="F7">
-        <v>0.98429999999999995</v>
+        <v>0.9919</v>
       </c>
       <c r="G7">
-        <v>0.42120000000000002</v>
+        <v>0.45860000000000001</v>
       </c>
       <c r="H7">
-        <v>0.99129999999999996</v>
+        <v>0.99319999999999997</v>
       </c>
       <c r="I7">
-        <v>0.40939999999999999</v>
+        <v>0.40289999999999998</v>
       </c>
       <c r="J7">
-        <v>0.99380000000000002</v>
+        <v>0.99690000000000001</v>
       </c>
       <c r="K7">
-        <v>0.40250000000000002</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="L7">
-        <v>0.99380000000000002</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="M7">
-        <v>0.40279999999999999</v>
+        <v>0.46489999999999998</v>
       </c>
       <c r="N7">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O7">
-        <v>0.40710000000000002</v>
+        <v>0.4672</v>
       </c>
       <c r="P7">
-        <v>0.99390000000000001</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="Q7">
-        <v>0.43819999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="R7">
-        <v>0.99619999999999997</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S7">
-        <v>0.40699999999999997</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2107,58 +2107,58 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.97460000000000002</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="C8">
-        <v>0.46579999999999999</v>
+        <v>0.43730000000000002</v>
       </c>
       <c r="D8">
-        <v>0.98440000000000005</v>
+        <v>0.98829999999999996</v>
       </c>
       <c r="E8">
-        <v>0.42049999999999998</v>
+        <v>0.46250000000000002</v>
       </c>
       <c r="F8">
-        <v>0.98419999999999996</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="G8">
-        <v>0.4214</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="H8">
-        <v>0.99129999999999996</v>
+        <v>0.99319999999999997</v>
       </c>
       <c r="I8">
-        <v>0.40939999999999999</v>
+        <v>0.40289999999999998</v>
       </c>
       <c r="J8">
-        <v>0.99380000000000002</v>
+        <v>0.99690000000000001</v>
       </c>
       <c r="K8">
-        <v>0.40250000000000002</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="L8">
-        <v>0.99380000000000002</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="M8">
-        <v>0.40279999999999999</v>
+        <v>0.46479999999999999</v>
       </c>
       <c r="N8">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O8">
-        <v>0.40710000000000002</v>
+        <v>0.4672</v>
       </c>
       <c r="P8">
-        <v>0.99399999999999999</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="Q8">
-        <v>0.43830000000000002</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="R8">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S8">
-        <v>0.40660000000000002</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2166,58 +2166,58 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.97850000000000004</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="C9">
-        <v>0.45540000000000003</v>
+        <v>0.44080000000000003</v>
       </c>
       <c r="D9">
-        <v>0.98440000000000005</v>
+        <v>0.9899</v>
       </c>
       <c r="E9">
-        <v>0.42049999999999998</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="F9">
-        <v>0.98429999999999995</v>
+        <v>0.9919</v>
       </c>
       <c r="G9">
-        <v>0.42120000000000002</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="H9">
-        <v>0.99129999999999996</v>
+        <v>0.99319999999999997</v>
       </c>
       <c r="I9">
-        <v>0.40939999999999999</v>
+        <v>0.40289999999999998</v>
       </c>
       <c r="J9">
-        <v>0.99380000000000002</v>
+        <v>0.99690000000000001</v>
       </c>
       <c r="K9">
-        <v>0.40250000000000002</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="L9">
-        <v>0.99380000000000002</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="M9">
-        <v>0.40279999999999999</v>
+        <v>0.46479999999999999</v>
       </c>
       <c r="N9">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O9">
-        <v>0.40699999999999997</v>
+        <v>0.4672</v>
       </c>
       <c r="P9">
-        <v>0.99390000000000001</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="Q9">
-        <v>0.43819999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="R9">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S9">
-        <v>0.40689999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2225,58 +2225,58 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.97799999999999998</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="C10">
-        <v>0.45879999999999999</v>
+        <v>0.44009999999999999</v>
       </c>
       <c r="D10">
-        <v>0.98440000000000005</v>
+        <v>0.98729999999999996</v>
       </c>
       <c r="E10">
-        <v>0.42049999999999998</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="F10">
-        <v>0.98240000000000005</v>
+        <v>0.9919</v>
       </c>
       <c r="G10">
-        <v>0.43540000000000001</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="H10">
-        <v>0.99180000000000001</v>
+        <v>0.99319999999999997</v>
       </c>
       <c r="I10">
-        <v>0.40799999999999997</v>
+        <v>0.40289999999999998</v>
       </c>
       <c r="J10">
-        <v>0.99380000000000002</v>
+        <v>0.997</v>
       </c>
       <c r="K10">
-        <v>0.40250000000000002</v>
+        <v>0.4607</v>
       </c>
       <c r="L10">
-        <v>0.99380000000000002</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="M10">
-        <v>0.40289999999999998</v>
+        <v>0.46479999999999999</v>
       </c>
       <c r="N10">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O10">
-        <v>0.40620000000000001</v>
+        <v>0.4672</v>
       </c>
       <c r="P10">
-        <v>0.99399999999999999</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="Q10">
-        <v>0.43830000000000002</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="R10">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S10">
-        <v>0.40689999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2284,58 +2284,58 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.97809999999999997</v>
+        <v>0.99209999999999998</v>
       </c>
       <c r="C11">
-        <v>0.46</v>
+        <v>0.43790000000000001</v>
       </c>
       <c r="D11">
-        <v>0.98440000000000005</v>
+        <v>0.98960000000000004</v>
       </c>
       <c r="E11">
-        <v>0.42049999999999998</v>
+        <v>0.46689999999999998</v>
       </c>
       <c r="F11">
-        <v>0.98429999999999995</v>
+        <v>0.9919</v>
       </c>
       <c r="G11">
-        <v>0.42120000000000002</v>
+        <v>0.45829999999999999</v>
       </c>
       <c r="H11">
-        <v>0.99180000000000001</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="I11">
-        <v>0.40799999999999997</v>
+        <v>0.40229999999999999</v>
       </c>
       <c r="J11">
-        <v>0.99380000000000002</v>
+        <v>0.997</v>
       </c>
       <c r="K11">
-        <v>0.40250000000000002</v>
+        <v>0.4607</v>
       </c>
       <c r="L11">
-        <v>0.99380000000000002</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="M11">
-        <v>0.40289999999999998</v>
+        <v>0.46529999999999999</v>
       </c>
       <c r="N11">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O11">
-        <v>0.40629999999999999</v>
+        <v>0.4672</v>
       </c>
       <c r="P11">
-        <v>0.99390000000000001</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="Q11">
-        <v>0.43519999999999998</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="R11">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S11">
-        <v>0.40649999999999997</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2343,58 +2343,58 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.97809999999999997</v>
+        <v>0.99170000000000003</v>
       </c>
       <c r="C12">
-        <v>0.4602</v>
+        <v>0.46179999999999999</v>
       </c>
       <c r="D12">
-        <v>0.98440000000000005</v>
+        <v>0.98960000000000004</v>
       </c>
       <c r="E12">
-        <v>0.42049999999999998</v>
+        <v>0.46689999999999998</v>
       </c>
       <c r="F12">
-        <v>0.98419999999999996</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="G12">
-        <v>0.4214</v>
+        <v>0.46029999999999999</v>
       </c>
       <c r="H12">
-        <v>0.99180000000000001</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="I12">
-        <v>0.40799999999999997</v>
+        <v>0.4027</v>
       </c>
       <c r="J12">
-        <v>0.99380000000000002</v>
+        <v>0.997</v>
       </c>
       <c r="K12">
-        <v>0.40250000000000002</v>
+        <v>0.4607</v>
       </c>
       <c r="L12">
-        <v>0.99380000000000002</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="M12">
-        <v>0.40289999999999998</v>
+        <v>0.46479999999999999</v>
       </c>
       <c r="N12">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O12">
-        <v>0.40629999999999999</v>
+        <v>0.4672</v>
       </c>
       <c r="P12">
-        <v>0.99380000000000002</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="Q12">
-        <v>0.43809999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="R12">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S12">
-        <v>0.40689999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2402,58 +2402,58 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.97809999999999997</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="C13">
-        <v>0.4602</v>
+        <v>0.46329999999999999</v>
       </c>
       <c r="D13">
-        <v>0.98440000000000005</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="E13">
-        <v>0.42049999999999998</v>
+        <v>0.47070000000000001</v>
       </c>
       <c r="F13">
-        <v>0.98419999999999996</v>
+        <v>0.99539999999999995</v>
       </c>
       <c r="G13">
-        <v>0.4214</v>
+        <v>0.45729999999999998</v>
       </c>
       <c r="H13">
-        <v>0.99180000000000001</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="I13">
-        <v>0.40799999999999997</v>
+        <v>0.40229999999999999</v>
       </c>
       <c r="J13">
-        <v>0.99380000000000002</v>
+        <v>0.997</v>
       </c>
       <c r="K13">
-        <v>0.40250000000000002</v>
+        <v>0.4607</v>
       </c>
       <c r="L13">
-        <v>0.99380000000000002</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="M13">
-        <v>0.40289999999999998</v>
+        <v>0.46479999999999999</v>
       </c>
       <c r="N13">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O13">
-        <v>0.40629999999999999</v>
+        <v>0.4672</v>
       </c>
       <c r="P13">
-        <v>0.99380000000000002</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="Q13">
-        <v>0.43809999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="R13">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S13">
-        <v>0.40689999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2461,58 +2461,58 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.97809999999999997</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="C14">
-        <v>0.46029999999999999</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D14">
-        <v>0.98440000000000005</v>
+        <v>0.98950000000000005</v>
       </c>
       <c r="E14">
-        <v>0.42049999999999998</v>
+        <v>0.46920000000000001</v>
       </c>
       <c r="F14">
-        <v>0.98429999999999995</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="G14">
-        <v>0.42120000000000002</v>
+        <v>0.45739999999999997</v>
       </c>
       <c r="H14">
-        <v>0.99180000000000001</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="I14">
-        <v>0.40799999999999997</v>
+        <v>0.40229999999999999</v>
       </c>
       <c r="J14">
-        <v>0.99380000000000002</v>
+        <v>0.997</v>
       </c>
       <c r="K14">
-        <v>0.40250000000000002</v>
+        <v>0.4607</v>
       </c>
       <c r="L14">
-        <v>0.99380000000000002</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="M14">
-        <v>0.40289999999999998</v>
+        <v>0.46479999999999999</v>
       </c>
       <c r="N14">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O14">
-        <v>0.40629999999999999</v>
+        <v>0.4672</v>
       </c>
       <c r="P14">
-        <v>0.99380000000000002</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="Q14">
-        <v>0.43809999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="R14">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S14">
-        <v>0.40589999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2520,58 +2520,58 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.97809999999999997</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="C15">
-        <v>0.46029999999999999</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D15">
-        <v>0.98440000000000005</v>
+        <v>0.98950000000000005</v>
       </c>
       <c r="E15">
-        <v>0.42049999999999998</v>
+        <v>0.46920000000000001</v>
       </c>
       <c r="F15">
-        <v>0.98419999999999996</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="G15">
-        <v>0.4214</v>
+        <v>0.4672</v>
       </c>
       <c r="H15">
-        <v>0.99180000000000001</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="I15">
-        <v>0.40799999999999997</v>
+        <v>0.4027</v>
       </c>
       <c r="J15">
-        <v>0.99380000000000002</v>
+        <v>0.99580000000000002</v>
       </c>
       <c r="K15">
-        <v>0.40250000000000002</v>
+        <v>0.45989999999999998</v>
       </c>
       <c r="L15">
-        <v>0.99629999999999996</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="M15">
-        <v>0.37569999999999998</v>
+        <v>0.46479999999999999</v>
       </c>
       <c r="N15">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O15">
-        <v>0.40629999999999999</v>
+        <v>0.4672</v>
       </c>
       <c r="P15">
-        <v>0.99380000000000002</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="Q15">
-        <v>0.43809999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="R15">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S15">
-        <v>0.40689999999999998</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2579,58 +2579,58 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.98129999999999995</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="C16">
-        <v>0.47470000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="D16">
-        <v>0.98440000000000005</v>
+        <v>0.98950000000000005</v>
       </c>
       <c r="E16">
-        <v>0.42049999999999998</v>
+        <v>0.46920000000000001</v>
       </c>
       <c r="F16">
-        <v>0.98419999999999996</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="G16">
-        <v>0.4214</v>
+        <v>0.4672</v>
       </c>
       <c r="H16">
-        <v>0.99170000000000003</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="I16">
-        <v>0.4083</v>
+        <v>0.4022</v>
       </c>
       <c r="J16">
-        <v>0.99380000000000002</v>
+        <v>0.99580000000000002</v>
       </c>
       <c r="K16">
-        <v>0.40250000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="L16">
-        <v>0.99380000000000002</v>
+        <v>0.99750000000000005</v>
       </c>
       <c r="M16">
-        <v>0.40289999999999998</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="N16">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O16">
-        <v>0.40629999999999999</v>
+        <v>0.4672</v>
       </c>
       <c r="P16">
-        <v>0.99380000000000002</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="Q16">
-        <v>0.43809999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="R16">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S16">
-        <v>0.40629999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2638,58 +2638,58 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.97829999999999995</v>
+        <v>0.99160000000000004</v>
       </c>
       <c r="C17">
-        <v>0.46260000000000001</v>
+        <v>0.4874</v>
       </c>
       <c r="D17">
-        <v>0.98440000000000005</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="E17">
-        <v>0.42049999999999998</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="F17">
-        <v>0.98429999999999995</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="G17">
-        <v>0.42120000000000002</v>
+        <v>0.4672</v>
       </c>
       <c r="H17">
-        <v>0.99180000000000001</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="I17">
-        <v>0.40799999999999997</v>
+        <v>0.4022</v>
       </c>
       <c r="J17">
-        <v>0.99380000000000002</v>
+        <v>0.99580000000000002</v>
       </c>
       <c r="K17">
-        <v>0.40250000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="L17">
-        <v>0.99380000000000002</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="M17">
-        <v>0.4027</v>
+        <v>0.46479999999999999</v>
       </c>
       <c r="N17">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O17">
-        <v>0.40629999999999999</v>
+        <v>0.4672</v>
       </c>
       <c r="P17">
-        <v>0.99380000000000002</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="Q17">
-        <v>0.43809999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="R17">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S17">
-        <v>0.40629999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2697,58 +2697,58 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.97840000000000005</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="C18">
-        <v>0.4612</v>
+        <v>0.47510000000000002</v>
       </c>
       <c r="D18">
-        <v>0.98440000000000005</v>
+        <v>0.98980000000000001</v>
       </c>
       <c r="E18">
-        <v>0.42049999999999998</v>
+        <v>0.46829999999999999</v>
       </c>
       <c r="F18">
-        <v>0.98419999999999996</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="G18">
-        <v>0.4214</v>
+        <v>0.4672</v>
       </c>
       <c r="H18">
-        <v>0.99180000000000001</v>
+        <v>0.99229999999999996</v>
       </c>
       <c r="I18">
-        <v>0.40799999999999997</v>
+        <v>0.40260000000000001</v>
       </c>
       <c r="J18">
-        <v>0.99380000000000002</v>
+        <v>0.99580000000000002</v>
       </c>
       <c r="K18">
-        <v>0.40250000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="L18">
-        <v>0.99380000000000002</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="M18">
-        <v>0.40289999999999998</v>
+        <v>0.46489999999999998</v>
       </c>
       <c r="N18">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O18">
-        <v>0.40629999999999999</v>
+        <v>0.4672</v>
       </c>
       <c r="P18">
-        <v>0.99380000000000002</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="Q18">
-        <v>0.43809999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="R18">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S18">
-        <v>0.40629999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2756,58 +2756,58 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.97840000000000005</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="C19">
-        <v>0.4612</v>
+        <v>0.47489999999999999</v>
       </c>
       <c r="D19">
-        <v>0.98440000000000005</v>
+        <v>0.98980000000000001</v>
       </c>
       <c r="E19">
-        <v>0.42049999999999998</v>
+        <v>0.46850000000000003</v>
       </c>
       <c r="F19">
-        <v>0.98419999999999996</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="G19">
-        <v>0.4214</v>
+        <v>0.4672</v>
       </c>
       <c r="H19">
-        <v>0.99180000000000001</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="I19">
-        <v>0.40799999999999997</v>
+        <v>0.4022</v>
       </c>
       <c r="J19">
-        <v>0.99380000000000002</v>
+        <v>0.99580000000000002</v>
       </c>
       <c r="K19">
-        <v>0.40250000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="L19">
-        <v>0.99380000000000002</v>
+        <v>0.99750000000000005</v>
       </c>
       <c r="M19">
-        <v>0.40289999999999998</v>
+        <v>0.4647</v>
       </c>
       <c r="N19">
-        <v>0.99639999999999995</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O19">
-        <v>0.40620000000000001</v>
+        <v>0.4672</v>
       </c>
       <c r="P19">
-        <v>0.99390000000000001</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="Q19">
-        <v>0.43709999999999999</v>
+        <v>0.4672</v>
       </c>
       <c r="R19">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S19">
-        <v>0.40629999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2815,58 +2815,58 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.97840000000000005</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="C20">
-        <v>0.4612</v>
+        <v>0.47489999999999999</v>
       </c>
       <c r="D20">
-        <v>0.98440000000000005</v>
+        <v>0.99039999999999995</v>
       </c>
       <c r="E20">
-        <v>0.42049999999999998</v>
+        <v>0.47170000000000001</v>
       </c>
       <c r="F20">
-        <v>0.98429999999999995</v>
+        <v>0.99229999999999996</v>
       </c>
       <c r="G20">
-        <v>0.42120000000000002</v>
+        <v>0.4703</v>
       </c>
       <c r="H20">
-        <v>0.99170000000000003</v>
+        <v>0.99229999999999996</v>
       </c>
       <c r="I20">
-        <v>0.4083</v>
+        <v>0.40260000000000001</v>
       </c>
       <c r="J20">
-        <v>0.99380000000000002</v>
+        <v>0.996</v>
       </c>
       <c r="K20">
-        <v>0.40250000000000002</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="L20">
-        <v>0.99380000000000002</v>
+        <v>0.99750000000000005</v>
       </c>
       <c r="M20">
-        <v>0.4027</v>
+        <v>0.4647</v>
       </c>
       <c r="N20">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="O20">
-        <v>0.40629999999999999</v>
+        <v>0.4672</v>
       </c>
       <c r="P20">
-        <v>0.99390000000000001</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="Q20">
-        <v>0.43709999999999999</v>
+        <v>0.4672</v>
       </c>
       <c r="R20">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S20">
-        <v>0.40629999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2874,58 +2874,58 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.97829999999999995</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="C21">
-        <v>0.46129999999999999</v>
+        <v>0.47489999999999999</v>
       </c>
       <c r="D21">
-        <v>0.98440000000000005</v>
+        <v>0.99039999999999995</v>
       </c>
       <c r="E21">
-        <v>0.42049999999999998</v>
+        <v>0.47139999999999999</v>
       </c>
       <c r="F21">
-        <v>0.99080000000000001</v>
+        <v>0.99280000000000002</v>
       </c>
       <c r="G21">
-        <v>0.41020000000000001</v>
+        <v>0.46729999999999999</v>
       </c>
       <c r="H21">
-        <v>0.99170000000000003</v>
+        <v>0.99229999999999996</v>
       </c>
       <c r="I21">
-        <v>0.4083</v>
+        <v>0.40260000000000001</v>
       </c>
       <c r="J21">
-        <v>0.99380000000000002</v>
+        <v>0.996</v>
       </c>
       <c r="K21">
-        <v>0.40250000000000002</v>
+        <v>0.46210000000000001</v>
       </c>
       <c r="L21">
-        <v>0.99380000000000002</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="M21">
-        <v>0.40289999999999998</v>
+        <v>0.4647</v>
       </c>
       <c r="N21">
-        <v>0.99639999999999995</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="O21">
-        <v>0.40620000000000001</v>
+        <v>0.46729999999999999</v>
       </c>
       <c r="P21">
-        <v>0.99390000000000001</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="Q21">
-        <v>0.43709999999999999</v>
+        <v>0.4672</v>
       </c>
       <c r="R21">
-        <v>0.99629999999999996</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="S21">
-        <v>0.40629999999999999</v>
+        <v>0.46710000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2934,44 +2934,45 @@
       </c>
       <c r="B22">
         <f>MAX(B2:B21)</f>
-        <v>0.98199999999999998</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22" si="0">MAX(D2:D21)</f>
-        <v>0.98870000000000002</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22" si="1">MAX(F2:F21)</f>
-        <v>0.99080000000000001</v>
+        <v>0.99550000000000005</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="2">MAX(H2:H21)</f>
-        <v>0.99180000000000001</v>
+        <v>0.99339999999999995</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22" si="3">MAX(J2:J21)</f>
-        <v>0.99380000000000002</v>
+        <v>0.997</v>
       </c>
       <c r="L22">
         <f t="shared" ref="L22" si="4">MAX(L2:L21)</f>
-        <v>0.99629999999999996</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="N22">
         <f t="shared" ref="N22" si="5">MAX(N2:N21)</f>
-        <v>0.99650000000000005</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="P22">
         <f t="shared" ref="P22" si="6">MAX(P2:P21)</f>
-        <v>0.99460000000000004</v>
+        <v>0.99829999999999997</v>
       </c>
       <c r="R22">
         <f t="shared" ref="R22" si="7">MAX(R2:R21)</f>
-        <v>0.99650000000000005</v>
+        <v>0.99829999999999997</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>